--- a/data/trans_orig/IP17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD4E64D-173A-4557-8E5F-6F92501752F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D660485-8CE1-4883-A8F1-9562ACCE41A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9C245988-F1B5-4519-9700-87324C6B005E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D798557B-4894-4A1E-8DF8-948795873F61}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>17,89%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
     <t>77,61%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>39,16%</t>
   </si>
   <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
     <t>87,08%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>16,17%</t>
   </si>
   <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
     <t>77,29%</t>
   </si>
   <si>
@@ -566,6 +566,60 @@
     <t>33,72%</t>
   </si>
   <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
     <t>85,83%</t>
   </si>
   <si>
@@ -620,60 +674,6 @@
     <t>17,87%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
     <t>80,28%</t>
   </si>
   <si>
@@ -773,6 +773,54 @@
     <t>27,27%</t>
   </si>
   <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
     <t>84,93%</t>
   </si>
   <si>
@@ -825,54 +873,6 @@
   </si>
   <si>
     <t>16,22%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
   </si>
   <si>
     <t>82,58%</t>
@@ -1306,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F16BB2-B13D-4498-AD67-2D9C87E7EA10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A436B8-428E-4BCA-A3A6-252AC5922AA7}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1579,10 +1579,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="D7" s="7">
-        <v>230133</v>
+        <v>172063</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1594,10 +1594,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="I7" s="7">
-        <v>233199</v>
+        <v>171520</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1609,10 +1609,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>691</v>
+        <v>515</v>
       </c>
       <c r="N7" s="7">
-        <v>463332</v>
+        <v>343584</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1630,10 +1630,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7">
-        <v>51365</v>
+        <v>45978</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1645,10 +1645,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I8" s="7">
-        <v>32404</v>
+        <v>33702</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1660,10 +1660,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N8" s="7">
-        <v>83769</v>
+        <v>79679</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1681,10 +1681,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1696,10 +1696,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1711,10 +1711,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1734,10 +1734,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="D10" s="7">
-        <v>172063</v>
+        <v>230133</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1749,10 +1749,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="I10" s="7">
-        <v>171520</v>
+        <v>233199</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1764,10 +1764,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>515</v>
+        <v>691</v>
       </c>
       <c r="N10" s="7">
-        <v>343584</v>
+        <v>463332</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1785,10 +1785,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D11" s="7">
-        <v>45978</v>
+        <v>51365</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1800,10 +1800,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>33702</v>
+        <v>32404</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1815,10 +1815,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N11" s="7">
-        <v>79679</v>
+        <v>83769</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1836,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1851,10 +1851,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1866,10 +1866,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2052,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F6BB42-7FFE-455F-B1CB-CB663EB4069F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9621DA07-4C09-4B15-9848-9EF792C95816}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2325,10 +2325,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="D7" s="7">
-        <v>236304</v>
+        <v>188100</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2340,10 +2340,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="I7" s="7">
-        <v>219270</v>
+        <v>184499</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2355,10 +2355,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>658</v>
+        <v>521</v>
       </c>
       <c r="N7" s="7">
-        <v>455574</v>
+        <v>372599</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2376,10 +2376,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>35047</v>
+        <v>52593</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2391,10 +2391,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I8" s="7">
-        <v>37141</v>
+        <v>44298</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2406,10 +2406,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="N8" s="7">
-        <v>72188</v>
+        <v>96891</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2427,10 +2427,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="D9" s="7">
-        <v>271351</v>
+        <v>240693</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2442,10 +2442,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="I9" s="7">
-        <v>256411</v>
+        <v>228797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2457,10 +2457,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>765</v>
+        <v>653</v>
       </c>
       <c r="N9" s="7">
-        <v>527762</v>
+        <v>469490</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2480,10 +2480,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="D10" s="7">
-        <v>188100</v>
+        <v>236304</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2495,10 +2495,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="I10" s="7">
-        <v>184499</v>
+        <v>219270</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2510,10 +2510,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>521</v>
+        <v>658</v>
       </c>
       <c r="N10" s="7">
-        <v>372599</v>
+        <v>455574</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2531,10 +2531,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>52593</v>
+        <v>35047</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2546,10 +2546,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>44298</v>
+        <v>37141</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2561,10 +2561,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="N11" s="7">
-        <v>96891</v>
+        <v>72188</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2582,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="D12" s="7">
-        <v>240693</v>
+        <v>271351</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2597,10 +2597,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="I12" s="7">
-        <v>228797</v>
+        <v>256411</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2612,10 +2612,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>653</v>
+        <v>765</v>
       </c>
       <c r="N12" s="7">
-        <v>469490</v>
+        <v>527762</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2798,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4768858F-329E-4F9B-9E18-823098E650A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B691CA3E-FF03-4390-AF03-0622200F4125}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3071,10 +3071,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D7" s="7">
-        <v>239365</v>
+        <v>204424</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>175</v>
@@ -3086,10 +3086,10 @@
         <v>177</v>
       </c>
       <c r="H7" s="7">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="I7" s="7">
-        <v>223502</v>
+        <v>195956</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>178</v>
@@ -3101,10 +3101,10 @@
         <v>180</v>
       </c>
       <c r="M7" s="7">
-        <v>634</v>
+        <v>595</v>
       </c>
       <c r="N7" s="7">
-        <v>462866</v>
+        <v>400380</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>181</v>
@@ -3122,10 +3122,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>39511</v>
+        <v>45044</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>184</v>
@@ -3137,10 +3137,10 @@
         <v>186</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7">
-        <v>43572</v>
+        <v>38772</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>187</v>
@@ -3152,10 +3152,10 @@
         <v>189</v>
       </c>
       <c r="M8" s="7">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N8" s="7">
-        <v>83084</v>
+        <v>83816</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>190</v>
@@ -3173,10 +3173,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D9" s="7">
-        <v>278876</v>
+        <v>249468</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3188,10 +3188,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="I9" s="7">
-        <v>267074</v>
+        <v>234728</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3203,10 +3203,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>751</v>
+        <v>721</v>
       </c>
       <c r="N9" s="7">
-        <v>545950</v>
+        <v>484196</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3226,10 +3226,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="D10" s="7">
-        <v>204424</v>
+        <v>239365</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>193</v>
@@ -3241,10 +3241,10 @@
         <v>195</v>
       </c>
       <c r="H10" s="7">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="I10" s="7">
-        <v>195956</v>
+        <v>223502</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>196</v>
@@ -3256,10 +3256,10 @@
         <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="N10" s="7">
-        <v>400380</v>
+        <v>462866</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>199</v>
@@ -3277,10 +3277,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7">
-        <v>45044</v>
+        <v>39511</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>202</v>
@@ -3292,10 +3292,10 @@
         <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I11" s="7">
-        <v>38772</v>
+        <v>43572</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>205</v>
@@ -3307,10 +3307,10 @@
         <v>207</v>
       </c>
       <c r="M11" s="7">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="N11" s="7">
-        <v>83816</v>
+        <v>83084</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>208</v>
@@ -3328,10 +3328,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="D12" s="7">
-        <v>249468</v>
+        <v>278876</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3343,10 +3343,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="I12" s="7">
-        <v>234728</v>
+        <v>267074</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3358,10 +3358,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="N12" s="7">
-        <v>484196</v>
+        <v>545950</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3544,7 +3544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390631B5-8846-4349-B522-0CA9FB69E10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2171AE-428B-4FDE-9F12-558F3A55031C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3817,10 +3817,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>401</v>
+        <v>218</v>
       </c>
       <c r="D7" s="7">
-        <v>342008</v>
+        <v>166875</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>244</v>
@@ -3832,10 +3832,10 @@
         <v>246</v>
       </c>
       <c r="H7" s="7">
-        <v>403</v>
+        <v>229</v>
       </c>
       <c r="I7" s="7">
-        <v>308324</v>
+        <v>163531</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>247</v>
@@ -3847,19 +3847,19 @@
         <v>249</v>
       </c>
       <c r="M7" s="7">
-        <v>804</v>
+        <v>447</v>
       </c>
       <c r="N7" s="7">
-        <v>650333</v>
+        <v>330406</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,49 +3868,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D8" s="7">
-        <v>60702</v>
+        <v>38180</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>52</v>
+      </c>
+      <c r="I8" s="7">
+        <v>34736</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H8" s="7">
-        <v>59</v>
-      </c>
-      <c r="I8" s="7">
-        <v>42484</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>105</v>
+      </c>
+      <c r="N8" s="7">
+        <v>72917</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M8" s="7">
-        <v>137</v>
-      </c>
-      <c r="N8" s="7">
-        <v>103186</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,10 +3919,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3934,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3949,10 +3949,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3972,49 +3972,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>218</v>
+        <v>401</v>
       </c>
       <c r="D10" s="7">
-        <v>166875</v>
+        <v>342008</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>403</v>
+      </c>
+      <c r="I10" s="7">
+        <v>308324</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H10" s="7">
-        <v>229</v>
-      </c>
-      <c r="I10" s="7">
-        <v>163531</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>804</v>
+      </c>
+      <c r="N10" s="7">
+        <v>650333</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="M10" s="7">
-        <v>447</v>
-      </c>
-      <c r="N10" s="7">
-        <v>330406</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,43 +4023,43 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7">
-        <v>38180</v>
+        <v>60702</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>59</v>
+      </c>
+      <c r="I11" s="7">
+        <v>42484</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="7">
-        <v>52</v>
-      </c>
-      <c r="I11" s="7">
-        <v>34736</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>137</v>
+      </c>
+      <c r="N11" s="7">
+        <v>103186</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="M11" s="7">
-        <v>105</v>
-      </c>
-      <c r="N11" s="7">
-        <v>72917</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>276</v>
@@ -4074,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4104,10 +4104,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4139,7 +4139,7 @@
         <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>789</v>
@@ -4163,7 +4163,7 @@
         <v>1152235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>283</v>
@@ -4187,7 +4187,7 @@
         <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>286</v>
@@ -4214,7 +4214,7 @@
         <v>226348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>290</v>

--- a/data/trans_orig/IP17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D660485-8CE1-4883-A8F1-9562ACCE41A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{507EBDFC-142B-4790-BF7F-BF3C2475CB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D798557B-4894-4A1E-8DF8-948795873F61}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{010436FF-2ABA-4B6D-A382-8CDF1A7D0826}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,853 +68,1093 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2015 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +1165,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1021,39 +1261,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1105,7 +1345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1216,13 +1456,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1231,6 +1464,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1295,19 +1535,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A436B8-428E-4BCA-A3A6-252AC5922AA7}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3710FB75-6F24-460C-AC17-6C518F3A8269}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1424,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>158668</v>
+        <v>40141</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1439,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>142714</v>
+        <v>43745</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1454,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>455</v>
+        <v>126</v>
       </c>
       <c r="N4" s="7">
-        <v>301382</v>
+        <v>83886</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1475,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7">
-        <v>64493</v>
+        <v>81239</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1490,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>67482</v>
+        <v>62426</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1505,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="N5" s="7">
-        <v>131975</v>
+        <v>143665</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1526,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1541,10 +1801,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1556,10 +1816,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1579,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7">
-        <v>172063</v>
+        <v>61062</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1594,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="I7" s="7">
-        <v>171520</v>
+        <v>49802</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1609,10 +1869,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>515</v>
+        <v>166</v>
       </c>
       <c r="N7" s="7">
-        <v>343584</v>
+        <v>110864</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1630,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>69</v>
+        <v>291</v>
       </c>
       <c r="D8" s="7">
-        <v>45978</v>
+        <v>192694</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1645,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c r="I8" s="7">
-        <v>33702</v>
+        <v>203403</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1660,10 +1920,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>119</v>
+        <v>595</v>
       </c>
       <c r="N8" s="7">
-        <v>79679</v>
+        <v>396097</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1681,10 +1941,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1696,10 +1956,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1711,10 +1971,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1734,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>230133</v>
+        <v>27442</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1749,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>346</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>233199</v>
+        <v>19738</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1764,10 +2024,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>691</v>
+        <v>71</v>
       </c>
       <c r="N10" s="7">
-        <v>463332</v>
+        <v>47181</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1785,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="D11" s="7">
-        <v>51365</v>
+        <v>114073</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1800,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="I11" s="7">
-        <v>32404</v>
+        <v>107810</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1815,10 +2075,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>125</v>
+        <v>332</v>
       </c>
       <c r="N11" s="7">
-        <v>83769</v>
+        <v>221882</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1836,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1851,10 +2111,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1866,10 +2126,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1883,55 +2143,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>844</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>560864</v>
+        <v>33191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>817</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>547434</v>
+        <v>20302</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1661</v>
+        <v>80</v>
       </c>
       <c r="N13" s="7">
-        <v>1108297</v>
+        <v>53494</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,49 +2200,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D14" s="7">
-        <v>161836</v>
+        <v>172858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="I14" s="7">
-        <v>133587</v>
+        <v>173795</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="N14" s="7">
-        <v>295424</v>
+        <v>346652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,55 +2251,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>242</v>
+      </c>
+      <c r="D16" s="7">
+        <v>161836</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>201</v>
+      </c>
+      <c r="I16" s="7">
+        <v>133587</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>443</v>
+      </c>
+      <c r="N16" s="7">
+        <v>295424</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>844</v>
+      </c>
+      <c r="D17" s="7">
+        <v>560864</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>817</v>
+      </c>
+      <c r="I17" s="7">
+        <v>547434</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1661</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1108297</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2052,8 +2473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9621DA07-4C09-4B15-9848-9EF792C95816}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012BB203-BFB2-4A86-941E-2CBF3CC9F8C4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2069,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2170,49 +2591,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7">
-        <v>156223</v>
+        <v>58112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
         <v>90</v>
       </c>
-      <c r="H4" s="7">
-        <v>216</v>
-      </c>
       <c r="I4" s="7">
-        <v>143039</v>
+        <v>60262</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>435</v>
+        <v>173</v>
       </c>
       <c r="N4" s="7">
-        <v>299262</v>
+        <v>118374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,49 +2642,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>124</v>
+      </c>
+      <c r="D5" s="7">
+        <v>87878</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="7">
-        <v>82941</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="H5" s="7">
+        <v>129</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86499</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="7">
-        <v>81706</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="M5" s="7">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N5" s="7">
-        <v>164647</v>
+        <v>174377</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="D6" s="7">
-        <v>239164</v>
+        <v>145990</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2287,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="I6" s="7">
-        <v>224745</v>
+        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2302,10 +2723,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>676</v>
+        <v>426</v>
       </c>
       <c r="N6" s="7">
-        <v>463909</v>
+        <v>292751</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2325,49 +2746,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7">
-        <v>188100</v>
+        <v>67207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>184499</v>
+        <v>54949</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>521</v>
+        <v>172</v>
       </c>
       <c r="N7" s="7">
-        <v>372599</v>
+        <v>122156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,49 +2797,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="D8" s="7">
-        <v>52593</v>
+        <v>201111</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="I8" s="7">
-        <v>44298</v>
+        <v>180538</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>132</v>
+        <v>540</v>
       </c>
       <c r="N8" s="7">
-        <v>96891</v>
+        <v>381649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="D9" s="7">
-        <v>240693</v>
+        <v>268318</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2442,10 +2863,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="I9" s="7">
-        <v>228797</v>
+        <v>235487</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2457,10 +2878,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>653</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>469490</v>
+        <v>503805</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2480,49 +2901,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>347</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>236304</v>
+        <v>19852</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>219270</v>
+        <v>26967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>658</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>455574</v>
+        <v>46819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,49 +2952,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7">
-        <v>35047</v>
+        <v>138094</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="I11" s="7">
-        <v>37141</v>
+        <v>129401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="N11" s="7">
-        <v>72188</v>
+        <v>267495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>400</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>271351</v>
+        <v>157946</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2597,10 +3018,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="I12" s="7">
-        <v>256411</v>
+        <v>156368</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2612,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>765</v>
+        <v>449</v>
       </c>
       <c r="N12" s="7">
-        <v>527762</v>
+        <v>314314</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2629,55 +3050,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>826</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>580628</v>
+        <v>25410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>788</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>546808</v>
+        <v>20967</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
-        <v>1614</v>
+        <v>68</v>
       </c>
       <c r="N13" s="7">
-        <v>1127436</v>
+        <v>46377</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,49 +3107,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D14" s="7">
-        <v>170581</v>
+        <v>153545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="I14" s="7">
-        <v>163145</v>
+        <v>150370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="N14" s="7">
-        <v>333726</v>
+        <v>303915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,55 +3158,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>264</v>
+      </c>
+      <c r="D15" s="7">
+        <v>178955</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>507</v>
+      </c>
+      <c r="N15" s="7">
+        <v>350292</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>245</v>
+      </c>
+      <c r="D16" s="7">
+        <v>170581</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="7">
+        <v>235</v>
+      </c>
+      <c r="I16" s="7">
+        <v>163145</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M16" s="7">
+        <v>480</v>
+      </c>
+      <c r="N16" s="7">
+        <v>333726</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>826</v>
+      </c>
+      <c r="D17" s="7">
+        <v>580628</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="7">
+        <v>788</v>
+      </c>
+      <c r="I17" s="7">
+        <v>546808</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1614</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1127436</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1071</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>751209</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1023</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>709953</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2094</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1461162</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2798,8 +3380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B691CA3E-FF03-4390-AF03-0622200F4125}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B61F33-B314-4264-AC75-0261C112C9A1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2815,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2916,49 +3498,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>150950</v>
+        <v>42687</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7">
-        <v>139727</v>
+        <v>44437</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>452</v>
+        <v>138</v>
       </c>
       <c r="N4" s="7">
-        <v>290676</v>
+        <v>87124</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,49 +3549,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7">
-        <v>61563</v>
+        <v>80827</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="I5" s="7">
-        <v>61541</v>
+        <v>87217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="N5" s="7">
-        <v>123105</v>
+        <v>168044</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>320</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
-        <v>212513</v>
+        <v>123514</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3033,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3048,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>646</v>
+        <v>397</v>
       </c>
       <c r="N6" s="7">
-        <v>413781</v>
+        <v>255168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3071,49 +3653,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>204424</v>
+        <v>48947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="I7" s="7">
-        <v>195956</v>
+        <v>43195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>595</v>
+        <v>142</v>
       </c>
       <c r="N7" s="7">
-        <v>400380</v>
+        <v>92142</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,49 +3704,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="D8" s="7">
-        <v>45044</v>
+        <v>208530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="I8" s="7">
-        <v>38772</v>
+        <v>167322</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>126</v>
+        <v>569</v>
       </c>
       <c r="N8" s="7">
-        <v>83816</v>
+        <v>375852</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>249468</v>
+        <v>257477</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3188,10 +3770,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>234728</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3203,10 +3785,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="N9" s="7">
-        <v>484196</v>
+        <v>467994</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3226,49 +3808,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>323</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>239365</v>
+        <v>35739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>223502</v>
+        <v>32733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>634</v>
+        <v>97</v>
       </c>
       <c r="N10" s="7">
-        <v>462866</v>
+        <v>68473</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,49 +3859,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7">
-        <v>39511</v>
+        <v>150793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>43572</v>
+        <v>155561</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>117</v>
+        <v>434</v>
       </c>
       <c r="N11" s="7">
-        <v>83084</v>
+        <v>306353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="D12" s="7">
-        <v>278876</v>
+        <v>186532</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3343,10 +3925,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>267074</v>
+        <v>188294</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3358,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>751</v>
+        <v>531</v>
       </c>
       <c r="N12" s="7">
-        <v>545950</v>
+        <v>374826</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3375,55 +3957,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>845</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>594738</v>
+        <v>18746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>836</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>559184</v>
+        <v>23521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>1681</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>1153922</v>
+        <v>42266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,49 +4014,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7">
-        <v>146119</v>
+        <v>154588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7">
-        <v>143886</v>
+        <v>149084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>290005</v>
+        <v>303673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,55 +4065,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173334</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>245</v>
+      </c>
+      <c r="I15" s="7">
+        <v>172605</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>479</v>
+      </c>
+      <c r="N15" s="7">
+        <v>345939</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>214</v>
+      </c>
+      <c r="D16" s="7">
+        <v>146119</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>223</v>
+      </c>
+      <c r="I16" s="7">
+        <v>143886</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="7">
+        <v>437</v>
+      </c>
+      <c r="N16" s="7">
+        <v>290005</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>845</v>
+      </c>
+      <c r="D17" s="7">
+        <v>594738</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="7">
+        <v>836</v>
+      </c>
+      <c r="I17" s="7">
+        <v>559184</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1681</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1153922</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1059</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>740857</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1059</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>703070</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2118</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1443927</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3544,8 +4287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2171AE-428B-4FDE-9F12-558F3A55031C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A9FA52-101E-49A2-8B2B-467222E365F7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3561,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3662,49 +4405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>90395</v>
+        <v>17671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>81101</v>
+        <v>16331</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>327</v>
+        <v>70</v>
       </c>
       <c r="N4" s="7">
-        <v>171496</v>
+        <v>34002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,49 +4456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D5" s="7">
-        <v>27543</v>
+        <v>40832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I5" s="7">
-        <v>22702</v>
+        <v>41038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="N5" s="7">
-        <v>50245</v>
+        <v>81869</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3779,10 +4522,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3794,10 +4537,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3817,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>166875</v>
+        <v>32614</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>163531</v>
+        <v>27950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>447</v>
+        <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>330406</v>
+        <v>60564</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D8" s="7">
-        <v>38180</v>
+        <v>142685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="I8" s="7">
-        <v>34736</v>
+        <v>130815</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
-        <v>105</v>
+        <v>438</v>
       </c>
       <c r="N8" s="7">
-        <v>72917</v>
+        <v>273499</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,10 +4662,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3934,10 +4677,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3949,10 +4692,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3972,49 +4715,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>342008</v>
+        <v>35060</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>403</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>308324</v>
+        <v>30469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>804</v>
+        <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>650333</v>
+        <v>65529</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="D11" s="7">
-        <v>60702</v>
+        <v>167418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="I11" s="7">
-        <v>42484</v>
+        <v>145644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>137</v>
+        <v>391</v>
       </c>
       <c r="N11" s="7">
-        <v>103186</v>
+        <v>313062</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4832,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4104,10 +4847,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4121,55 +4864,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>789</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>599278</v>
+        <v>41081</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>789</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>552956</v>
+        <v>25173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>1578</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>1152235</v>
+        <v>66253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="D14" s="7">
-        <v>126426</v>
+        <v>248343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>99923</v>
+        <v>235460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
-        <v>341</v>
+        <v>594</v>
       </c>
       <c r="N14" s="7">
-        <v>226348</v>
+        <v>483804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,55 +4972,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>188</v>
+      </c>
+      <c r="D16" s="7">
+        <v>126426</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H16" s="7">
+        <v>153</v>
+      </c>
+      <c r="I16" s="7">
+        <v>99923</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M16" s="7">
+        <v>341</v>
+      </c>
+      <c r="N16" s="7">
+        <v>226348</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>789</v>
+      </c>
+      <c r="D17" s="7">
+        <v>599278</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H17" s="7">
+        <v>789</v>
+      </c>
+      <c r="I17" s="7">
+        <v>552956</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1578</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1152235</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>977</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725704</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>942</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652879</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1919</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1378583</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{507EBDFC-142B-4790-BF7F-BF3C2475CB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C476BD-FEAC-4E0B-9CDD-758245A177B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{010436FF-2ABA-4B6D-A382-8CDF1A7D0826}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64B7E162-A120-406E-8A7B-C176CFC50318}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>33,07%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
   </si>
   <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>66,93%</t>
   </si>
   <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>63,14%</t>
   </si>
   <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>24,06%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,55 +197,55 @@
     <t>19,39%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -254,109 +254,109 @@
     <t>16,11%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>78,95%</t>
   </si>
   <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -368,439 +368,445 @@
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>59,56%</t>
   </si>
   <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
   </si>
   <si>
     <t>76,67%</t>
   </si>
   <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>14,2%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>16,82%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>85,8%</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>83,18%</t>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>25,15%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>74,85%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2015 (Tasa respuesta: 99,62%)</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2016 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
     <t>34,56%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>65,44%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
   </si>
   <si>
     <t>66,25%</t>
   </si>
   <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>65,86%</t>
   </si>
   <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>21,91%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>78,09%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>9,8%</t>
+    <t>9,73%</t>
   </si>
   <si>
     <t>18,53%</t>
@@ -809,19 +815,19 @@
     <t>12,22%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>89,19%</t>
   </si>
   <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>86,37%</t>
@@ -830,70 +836,64 @@
     <t>81,47%</t>
   </si>
   <si>
-    <t>90,2%</t>
+    <t>90,27%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>18,4%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>81,6%</t>
   </si>
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
@@ -902,223 +902,211 @@
     <t>30,21%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>69,79%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>70,66%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>12,75%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>14,87%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>82,4%</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>87,25%</t>
   </si>
   <si>
     <t>81,87%</t>
   </si>
   <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
-    <t>90,37%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>16,42%</t>
@@ -1127,31 +1115,31 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>18,24%</t>
+    <t>18,12%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>81,76%</t>
+    <t>81,88%</t>
   </si>
   <si>
     <t>85,22%</t>
@@ -1566,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3710FB75-6F24-460C-AC17-6C518F3A8269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB6B32B-5BD4-4013-949E-C03056C3EAD7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2473,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012BB203-BFB2-4A86-941E-2CBF3CC9F8C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65EFF0-7640-4F6C-8855-B2CE6D1D97EB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3080,10 +3068,10 @@
         <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -3092,13 +3080,13 @@
         <v>46377</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3101,13 @@
         <v>153545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>213</v>
@@ -3128,13 +3116,13 @@
         <v>150370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>439</v>
@@ -3143,13 +3131,13 @@
         <v>303915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3205,13 @@
         <v>170581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>235</v>
@@ -3232,13 +3220,13 @@
         <v>163145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>480</v>
@@ -3247,13 +3235,13 @@
         <v>333726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3256,13 @@
         <v>580628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>788</v>
@@ -3283,13 +3271,13 @@
         <v>546808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>1614</v>
@@ -3298,13 +3286,13 @@
         <v>1127436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B61F33-B314-4264-AC75-0261C112C9A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265FC91B-A87F-4312-8878-ADFA61D1E3DC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3397,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3504,13 +3492,13 @@
         <v>42687</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -3519,13 +3507,13 @@
         <v>44437</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>138</v>
@@ -3534,13 +3522,13 @@
         <v>87124</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3543,13 @@
         <v>80827</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>139</v>
@@ -3570,13 +3558,13 @@
         <v>87217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>259</v>
@@ -3585,13 +3573,13 @@
         <v>168044</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3647,13 @@
         <v>48947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -3674,13 +3662,13 @@
         <v>43195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>142</v>
@@ -3689,13 +3677,13 @@
         <v>92142</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3698,13 @@
         <v>208530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>263</v>
@@ -3725,13 +3713,13 @@
         <v>167322</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>569</v>
@@ -3740,13 +3728,13 @@
         <v>375852</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3802,13 @@
         <v>35739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -3829,13 +3817,13 @@
         <v>32733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -3844,13 +3832,13 @@
         <v>68473</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3853,13 @@
         <v>150793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -3880,13 +3868,13 @@
         <v>155561</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>434</v>
@@ -3895,13 +3883,13 @@
         <v>306353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3957,13 @@
         <v>18746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3984,13 +3972,13 @@
         <v>23521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -3999,13 +3987,13 @@
         <v>42266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4008,13 @@
         <v>154588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>210</v>
@@ -4035,13 +4023,13 @@
         <v>149084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -4050,13 +4038,13 @@
         <v>303673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4112,13 @@
         <v>146119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>223</v>
@@ -4139,13 +4127,13 @@
         <v>143886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>437</v>
@@ -4154,13 +4142,13 @@
         <v>290005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4163,13 @@
         <v>594738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>836</v>
@@ -4190,13 +4178,13 @@
         <v>559184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>1681</v>
@@ -4205,10 +4193,10 @@
         <v>1153922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>284</v>
@@ -4287,7 +4275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A9FA52-101E-49A2-8B2B-467222E365F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD003E-A45B-4EE9-9C9E-8980123A1EC5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4587,7 +4575,7 @@
         <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -4596,13 +4584,13 @@
         <v>60564</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,10 +4623,10 @@
         <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>438</v>
@@ -4647,10 +4635,10 @@
         <v>273499</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>319</v>
@@ -4721,13 +4709,13 @@
         <v>35060</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4736,13 +4724,13 @@
         <v>30469</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4751,13 +4739,13 @@
         <v>65529</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4760,13 @@
         <v>167418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>192</v>
@@ -4787,13 +4775,13 @@
         <v>145644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>391</v>
@@ -4802,13 +4790,13 @@
         <v>313062</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4864,13 @@
         <v>41081</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4891,13 +4879,13 @@
         <v>25173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -4906,13 +4894,13 @@
         <v>66253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4915,13 @@
         <v>248343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -4942,13 +4930,13 @@
         <v>235460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>594</v>
@@ -4957,13 +4945,13 @@
         <v>483804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5019,13 @@
         <v>126426</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>153</v>
@@ -5046,13 +5034,13 @@
         <v>99923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>341</v>
@@ -5061,13 +5049,13 @@
         <v>226348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5070,13 @@
         <v>599278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>789</v>
@@ -5097,13 +5085,13 @@
         <v>552956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>1578</v>
@@ -5112,13 +5100,13 @@
         <v>1152235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C476BD-FEAC-4E0B-9CDD-758245A177B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49849D2-2CA7-4FE0-A57F-AC6840A2463F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64B7E162-A120-406E-8A7B-C176CFC50318}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{840C578C-7199-469C-B066-908BFF66DFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
   <si>
     <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
     <t>33,07%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
     <t>66,93%</t>
   </si>
   <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>63,14%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1012 +137,994 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>Menores según si han necesitado consulta con el médico por algún problema/molestia/enfermedad en las últimas 2 semanas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB6B32B-5BD4-4013-949E-C03056C3EAD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D94755-6E40-4C10-96BF-6588E9F7FF41}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1672,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>40141</v>
+        <v>43745</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1687,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I4" s="7">
-        <v>43745</v>
+        <v>40141</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1723,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7">
-        <v>81239</v>
+        <v>62426</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1738,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="I5" s="7">
-        <v>62426</v>
+        <v>81239</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1774,25 +1756,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1827,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>61062</v>
+        <v>49802</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1842,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>49802</v>
+        <v>61062</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1878,10 +1860,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="D8" s="7">
-        <v>192694</v>
+        <v>203403</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1893,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="I8" s="7">
-        <v>203403</v>
+        <v>192694</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1929,25 +1911,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1982,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>27442</v>
+        <v>19738</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1997,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>19738</v>
+        <v>27442</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2033,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D11" s="7">
-        <v>114073</v>
+        <v>107810</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2048,10 +2030,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="I11" s="7">
-        <v>107810</v>
+        <v>114073</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2084,25 +2066,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2137,10 +2119,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>33191</v>
+        <v>20302</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2152,10 +2134,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>20302</v>
+        <v>33191</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2188,10 +2170,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D14" s="7">
-        <v>172858</v>
+        <v>173795</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2203,10 +2185,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I14" s="7">
-        <v>173795</v>
+        <v>172858</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2239,25 +2221,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2292,10 +2274,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="D16" s="7">
-        <v>161836</v>
+        <v>133587</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2307,10 +2289,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="I16" s="7">
-        <v>133587</v>
+        <v>161836</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2343,10 +2325,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="D17" s="7">
-        <v>560864</v>
+        <v>547434</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2358,10 +2340,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="I17" s="7">
-        <v>547434</v>
+        <v>560864</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2394,25 +2376,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2461,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65EFF0-7640-4F6C-8855-B2CE6D1D97EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6597DE1C-D771-4591-8DF3-7304A23612B8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2579,10 +2561,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7">
-        <v>58112</v>
+        <v>60262</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2594,10 +2576,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I4" s="7">
-        <v>60262</v>
+        <v>58112</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2630,10 +2612,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7">
-        <v>87878</v>
+        <v>86499</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2645,10 +2627,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I5" s="7">
-        <v>86499</v>
+        <v>87878</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2681,25 +2663,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>219</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>207</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>145990</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>219</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2734,10 +2716,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7">
-        <v>67207</v>
+        <v>54949</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2749,10 +2731,10 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I7" s="7">
-        <v>54949</v>
+        <v>67207</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2785,10 +2767,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D8" s="7">
-        <v>201111</v>
+        <v>180538</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -2800,10 +2782,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="I8" s="7">
-        <v>180538</v>
+        <v>201111</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -2836,25 +2818,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>339</v>
+      </c>
+      <c r="D9" s="7">
+        <v>235487</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>373</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268318</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>339</v>
-      </c>
-      <c r="I9" s="7">
-        <v>235487</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2889,10 +2871,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>19852</v>
+        <v>26967</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
@@ -2904,10 +2886,10 @@
         <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>26967</v>
+        <v>19852</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>147</v>
@@ -2940,10 +2922,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D11" s="7">
-        <v>138094</v>
+        <v>129401</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>153</v>
@@ -2955,10 +2937,10 @@
         <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="I11" s="7">
-        <v>129401</v>
+        <v>138094</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>156</v>
@@ -2991,25 +2973,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>222</v>
+      </c>
+      <c r="D12" s="7">
+        <v>156368</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>227</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>157946</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>222</v>
-      </c>
-      <c r="I12" s="7">
-        <v>156368</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3044,10 +3026,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>25410</v>
+        <v>20967</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>162</v>
@@ -3059,10 +3041,10 @@
         <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>20967</v>
+        <v>25410</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>165</v>
@@ -3095,10 +3077,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D14" s="7">
-        <v>153545</v>
+        <v>150370</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>171</v>
@@ -3110,10 +3092,10 @@
         <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>150370</v>
+        <v>153545</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>174</v>
@@ -3146,25 +3128,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>264</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>178955</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3199,10 +3181,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D16" s="7">
-        <v>170581</v>
+        <v>163145</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>180</v>
@@ -3214,10 +3196,10 @@
         <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I16" s="7">
-        <v>163145</v>
+        <v>170581</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>183</v>
@@ -3235,13 +3217,13 @@
         <v>333726</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,34 +3232,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>788</v>
+      </c>
+      <c r="D17" s="7">
+        <v>546808</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7">
         <v>826</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>580628</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="7">
-        <v>788</v>
-      </c>
-      <c r="I17" s="7">
-        <v>546808</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>1614</v>
@@ -3286,13 +3268,13 @@
         <v>1127436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,25 +3283,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1023</v>
+      </c>
+      <c r="D18" s="7">
+        <v>709953</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1071</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>751209</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I18" s="7">
-        <v>709953</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3368,7 +3350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265FC91B-A87F-4312-8878-ADFA61D1E3DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5270C70-CC0D-4590-AA1E-C86B6E412876}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3385,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3486,34 +3468,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>72</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44437</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>66</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>42687</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="7">
-        <v>72</v>
-      </c>
-      <c r="I4" s="7">
-        <v>44437</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>138</v>
@@ -3522,13 +3504,13 @@
         <v>87124</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,34 +3519,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>139</v>
+      </c>
+      <c r="D5" s="7">
+        <v>87217</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="7">
         <v>120</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>80827</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="7">
-        <v>139</v>
-      </c>
-      <c r="I5" s="7">
-        <v>87217</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>259</v>
@@ -3573,13 +3555,13 @@
         <v>168044</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,25 +3570,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>186</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>123514</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3641,34 +3623,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43195</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
         <v>73</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>48947</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="7">
-        <v>69</v>
-      </c>
-      <c r="I7" s="7">
-        <v>43195</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>142</v>
@@ -3677,13 +3659,13 @@
         <v>92142</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,34 +3674,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>263</v>
+      </c>
+      <c r="D8" s="7">
+        <v>167322</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="7">
         <v>306</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>208530</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" s="7">
-        <v>263</v>
-      </c>
-      <c r="I8" s="7">
-        <v>167322</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>569</v>
@@ -3728,13 +3710,13 @@
         <v>375852</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,25 +3725,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>379</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>257477</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3796,34 +3778,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7">
+        <v>32733</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="7">
         <v>50</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>35739</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="7">
-        <v>47</v>
-      </c>
-      <c r="I10" s="7">
-        <v>32733</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -3832,13 +3814,13 @@
         <v>68473</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,34 +3829,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>224</v>
+      </c>
+      <c r="D11" s="7">
+        <v>155561</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="7">
         <v>210</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>150793</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H11" s="7">
-        <v>224</v>
-      </c>
-      <c r="I11" s="7">
-        <v>155561</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>434</v>
@@ -3883,13 +3865,13 @@
         <v>306353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,25 +3880,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>271</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188294</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>260</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>186532</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>271</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188294</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3951,34 +3933,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23521</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
         <v>25</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>18746</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="7">
-        <v>35</v>
-      </c>
-      <c r="I13" s="7">
-        <v>23521</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -3987,13 +3969,13 @@
         <v>42266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,34 +3984,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>210</v>
+      </c>
+      <c r="D14" s="7">
+        <v>149084</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
         <v>209</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>154588</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="7">
-        <v>210</v>
-      </c>
-      <c r="I14" s="7">
-        <v>149084</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -4038,13 +4020,13 @@
         <v>303673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,25 +4035,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>245</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172605</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>234</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>245</v>
-      </c>
-      <c r="I15" s="7">
-        <v>172605</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4106,34 +4088,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>223</v>
+      </c>
+      <c r="D16" s="7">
+        <v>143886</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
         <v>214</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>146119</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="7">
-        <v>223</v>
-      </c>
-      <c r="I16" s="7">
-        <v>143886</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>437</v>
@@ -4142,13 +4124,13 @@
         <v>290005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,34 +4139,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>836</v>
+      </c>
+      <c r="D17" s="7">
+        <v>559184</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="7">
         <v>845</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>594738</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H17" s="7">
-        <v>836</v>
-      </c>
-      <c r="I17" s="7">
-        <v>559184</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>1681</v>
@@ -4193,13 +4175,13 @@
         <v>1153922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,7 +4193,7 @@
         <v>1059</v>
       </c>
       <c r="D18" s="7">
-        <v>740857</v>
+        <v>703070</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4226,7 +4208,7 @@
         <v>1059</v>
       </c>
       <c r="I18" s="7">
-        <v>703070</v>
+        <v>740857</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4275,7 +4257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DD003E-A45B-4EE9-9C9E-8980123A1EC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1461B857-9B39-4F66-BBAE-7A051F513A68}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4292,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4393,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16295</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="7">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
-        <v>17671</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="7">
-        <v>32</v>
-      </c>
       <c r="I4" s="7">
-        <v>16331</v>
+        <v>18447</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
       </c>
       <c r="N4" s="7">
-        <v>34002</v>
+        <v>34742</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>77</v>
+      </c>
+      <c r="D5" s="7">
+        <v>41216</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="7">
         <v>78</v>
       </c>
-      <c r="D5" s="7">
-        <v>40832</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="7">
-        <v>77</v>
-      </c>
       <c r="I5" s="7">
-        <v>41038</v>
+        <v>42997</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>155</v>
       </c>
       <c r="N5" s="7">
-        <v>81869</v>
+        <v>84213</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,25 +4477,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4528,7 +4510,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4548,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
+        <v>28198</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="7">
         <v>53</v>
       </c>
-      <c r="D7" s="7">
-        <v>32614</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H7" s="7">
-        <v>43</v>
-      </c>
       <c r="I7" s="7">
-        <v>27950</v>
+        <v>33728</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>60564</v>
+        <v>61925</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>215</v>
+      </c>
+      <c r="D8" s="7">
+        <v>131101</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" s="7">
         <v>223</v>
       </c>
-      <c r="D8" s="7">
-        <v>142685</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H8" s="7">
-        <v>215</v>
-      </c>
       <c r="I8" s="7">
-        <v>130815</v>
+        <v>148826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>438</v>
       </c>
       <c r="N8" s="7">
-        <v>273499</v>
+        <v>279928</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,25 +4632,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4683,7 +4665,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4703,49 +4685,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7">
+        <v>31296</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="7">
         <v>44</v>
       </c>
-      <c r="D10" s="7">
-        <v>35060</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H10" s="7">
-        <v>41</v>
-      </c>
       <c r="I10" s="7">
-        <v>30469</v>
+        <v>36871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>65529</v>
+        <v>68167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>192</v>
+      </c>
+      <c r="D11" s="7">
+        <v>141776</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="7">
         <v>199</v>
       </c>
-      <c r="D11" s="7">
-        <v>167418</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H11" s="7">
-        <v>192</v>
-      </c>
       <c r="I11" s="7">
-        <v>145644</v>
+        <v>175619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>391</v>
       </c>
       <c r="N11" s="7">
-        <v>313062</v>
+        <v>317396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,25 +4787,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4838,7 +4820,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4858,49 +4840,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24526</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="7">
         <v>53</v>
       </c>
-      <c r="D13" s="7">
-        <v>41081</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H13" s="7">
-        <v>37</v>
-      </c>
       <c r="I13" s="7">
-        <v>25173</v>
+        <v>42546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>66253</v>
+        <v>67071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>305</v>
+      </c>
+      <c r="D14" s="7">
+        <v>250932</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H14" s="7">
         <v>289</v>
       </c>
-      <c r="D14" s="7">
-        <v>248343</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H14" s="7">
-        <v>305</v>
-      </c>
       <c r="I14" s="7">
-        <v>235460</v>
+        <v>262937</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>594</v>
       </c>
       <c r="N14" s="7">
-        <v>483804</v>
+        <v>513869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,7 +4945,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4978,7 +4960,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4993,7 +4975,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5013,49 +4995,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>153</v>
+      </c>
+      <c r="D16" s="7">
+        <v>100314</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H16" s="7">
         <v>188</v>
       </c>
-      <c r="D16" s="7">
-        <v>126426</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H16" s="7">
-        <v>153</v>
-      </c>
       <c r="I16" s="7">
-        <v>99923</v>
+        <v>131592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
         <v>341</v>
       </c>
       <c r="N16" s="7">
-        <v>226348</v>
+        <v>231906</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,46 +5049,46 @@
         <v>789</v>
       </c>
       <c r="D17" s="7">
-        <v>599278</v>
+        <v>565026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7">
         <v>789</v>
       </c>
       <c r="I17" s="7">
-        <v>552956</v>
+        <v>630380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>1578</v>
       </c>
       <c r="N17" s="7">
-        <v>1152235</v>
+        <v>1195406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,25 +5097,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>977</v>
       </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652879</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5148,7 +5130,7 @@
         <v>1919</v>
       </c>
       <c r="N18" s="7">
-        <v>1378583</v>
+        <v>1427312</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
